--- a/public/csv/Products.xlsx
+++ b/public/csv/Products.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\murtaza\app.infinitewellnesspk.com\public\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\InfiniteWellnessPk\public\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>product_name</t>
   </si>
@@ -83,9 +83,6 @@
     <t>h2o</t>
   </si>
   <si>
-    <t>test person</t>
-  </si>
-  <si>
     <t>dosage</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
   </si>
   <si>
     <t>manufacturer</t>
-  </si>
-  <si>
-    <t>vendor</t>
   </si>
   <si>
     <t>unit_of_measurement</t>
@@ -428,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,26 +436,25 @@
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -470,49 +463,46 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
       <c r="P1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -532,40 +522,34 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
         <v>7</v>
       </c>
+      <c r="H2">
+        <v>73</v>
+      </c>
       <c r="I2">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K2">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="L2">
-        <v>29</v>
+        <v>9.125</v>
       </c>
       <c r="M2">
-        <v>9.125</v>
+        <v>39</v>
       </c>
       <c r="N2">
-        <v>39</v>
+        <v>51.83</v>
       </c>
       <c r="O2">
-        <v>51.83</v>
+        <v>63</v>
       </c>
       <c r="P2">
-        <v>63</v>
-      </c>
-      <c r="Q2">
         <v>42</v>
-      </c>
-      <c r="R2">
-        <v>122131</v>
       </c>
     </row>
   </sheetData>
